--- a/src/test/resources/excel/ExcelData.xlsx
+++ b/src/test/resources/excel/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91767\git\Capstone_Pavan\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1796471E-7C41-40B8-8B00-F5FCE44F4D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993C7F33-CA11-416A-84AC-FD4C17E672DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="0" windowWidth="14400" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,16 +30,16 @@
     <t>Pass@1234</t>
   </si>
   <si>
-    <t>XL</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
-    <t>dhv</t>
+    <t>pavan.anantha@gmail.com</t>
   </si>
   <si>
-    <t>pavan.anantha@gmail.com</t>
+    <t>L</t>
+  </si>
+  <si>
+    <t>VDK</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -380,21 +382,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
